--- a/regions/8/biznes seqtori/sakutrebis formis mikhedvit.xlsx
+++ b/regions/8/biznes seqtori/sakutrebis formis mikhedvit.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFBF9F9-00F6-4682-A42B-B7583099F6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,12 +49,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#.0;\-#.0;\-"/>
     <numFmt numFmtId="165" formatCode="#.0_);\(#.0\);\-"/>
-    <numFmt numFmtId="166" formatCode="#_);\(#\);\-"/>
-    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -144,7 +144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -154,9 +154,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -173,16 +170,16 @@
     <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -197,7 +194,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -288,6 +285,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -323,6 +337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -498,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -572,211 +603,235 @@
       <c r="P5" s="4">
         <v>2020</v>
       </c>
+      <c r="Q5" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>1052.9000000000001</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="11">
         <v>1180.5999999999999</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>1174.0999999999999</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>1342.8</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="11">
         <v>1726.2</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="11">
         <v>2302.4</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="11">
         <v>2506.4</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>2661.8</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="12">
         <v>2830.1</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="12">
         <v>3347.4</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="12">
         <v>3603.1</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="12">
         <v>4272.2</v>
       </c>
-      <c r="N6" s="13">
+      <c r="N6" s="12">
         <v>4527.3999999999996</v>
       </c>
-      <c r="O6" s="13">
+      <c r="O6" s="12">
         <v>5130.3</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="12">
         <v>5612.4</v>
       </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
+      <c r="Q6" s="12">
+        <v>6897.7877506199984</v>
+      </c>
+      <c r="R6" s="12">
+        <v>8743.6</v>
+      </c>
     </row>
     <row r="7" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="13">
         <v>671.6</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="13">
         <v>644.29999999999995</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="13">
         <v>654</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>645.4</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <v>796.8</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>1069.5999999999999</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>1318.7</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="13">
         <v>1408.9</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>1455.1</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>1924.5</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="13">
         <v>2183</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="13">
         <v>2712.4</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>3050.3</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <v>3564.2</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>3815.3</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
+      <c r="Q7" s="13">
+        <v>4762.5938983139195</v>
+      </c>
+      <c r="R7" s="13">
+        <v>6201.9</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="14">
+      <c r="B8" s="13">
         <v>287.10000000000002</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="13">
         <v>477.6</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="13">
         <v>426.7</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>645.5</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <v>891.2</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>1227.4000000000001</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>1184.0999999999999</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="13">
         <v>1248.2</v>
       </c>
-      <c r="J8" s="14">
+      <c r="J8" s="13">
         <v>1369.3</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="13">
         <v>1418</v>
       </c>
-      <c r="L8" s="14">
+      <c r="L8" s="13">
         <v>1411.8</v>
       </c>
-      <c r="M8" s="14">
+      <c r="M8" s="13">
         <v>1555.1</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>1474.4</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>1563</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>1792.9</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
+      <c r="Q8" s="13">
+        <v>2131.1405282997102</v>
+      </c>
+      <c r="R8" s="13">
+        <v>2535.1999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14">
+      <c r="B9" s="13">
         <v>94.2</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <v>58.7</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="13">
         <v>93.4</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>51.8</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <v>38.299999999999997</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>5.4</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>3.6</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="13">
         <v>4.8</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="13">
         <v>5.7</v>
       </c>
-      <c r="K9" s="14">
+      <c r="K9" s="13">
         <v>4.8</v>
       </c>
-      <c r="L9" s="14">
+      <c r="L9" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M9" s="14">
+      <c r="M9" s="13">
         <v>4.7</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="13">
         <v>2.6</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>3.1</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>4.0999999999999996</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>4.0533240063695004</v>
+      </c>
+      <c r="R9" s="13">
+        <v>6.4</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.3">
@@ -785,11 +840,11 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
@@ -838,205 +893,235 @@
       <c r="P13" s="4">
         <v>2020</v>
       </c>
+      <c r="Q13" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>833.6</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>977</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>991.9</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>1119.4000000000001</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="11">
         <v>1424.5</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="11">
         <v>1844.4</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="11">
         <v>2019.1</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>2008.2</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>2082.1</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>2326.4</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>2423.5</v>
       </c>
-      <c r="M14" s="13">
+      <c r="M14" s="12">
         <v>2955.1</v>
       </c>
-      <c r="N14" s="13">
+      <c r="N14" s="12">
         <v>3219.2</v>
       </c>
-      <c r="O14" s="13">
+      <c r="O14" s="12">
         <v>3638.2</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="12">
         <v>3885.3</v>
       </c>
+      <c r="Q14" s="12">
+        <v>4738.3819709620002</v>
+      </c>
+      <c r="R14" s="12">
+        <v>5780.1</v>
+      </c>
     </row>
     <row r="15" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="13">
         <v>457.8</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>455.1</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="13">
         <v>468.1</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>437.1</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
         <v>528.5</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>671.8</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>809.7</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>785.1</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="13">
         <v>738.9</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>922.9</v>
       </c>
-      <c r="L15" s="14">
+      <c r="L15" s="13">
         <v>1073.9000000000001</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>1480.5</v>
       </c>
-      <c r="N15" s="14">
+      <c r="N15" s="13">
         <v>1778.8</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <v>2155.6999999999998</v>
       </c>
-      <c r="P15" s="14">
+      <c r="P15" s="13">
         <v>2182.5</v>
       </c>
+      <c r="Q15" s="13">
+        <v>2756.3953445130005</v>
+      </c>
+      <c r="R15" s="13">
+        <v>3742.5</v>
+      </c>
     </row>
     <row r="16" spans="1:18" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="13">
         <v>287.3</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>456.7</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="13">
         <v>425.5</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>626.6</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="14">
         <v>855</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>1166.0999999999999</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>1203.2</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>1214.7</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="13">
         <v>1331.1</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>1395.3</v>
       </c>
-      <c r="L16" s="14">
+      <c r="L16" s="13">
         <v>1337.2</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>1459.8</v>
       </c>
-      <c r="N16" s="14">
+      <c r="N16" s="13">
         <v>1431.1</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>1469</v>
       </c>
-      <c r="P16" s="14">
+      <c r="P16" s="13">
         <v>1689.8</v>
       </c>
+      <c r="Q16" s="13">
+        <v>1966.6476379819992</v>
+      </c>
+      <c r="R16" s="13">
+        <v>2015.8</v>
+      </c>
     </row>
     <row r="17" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="13">
         <v>88.4</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>65.2</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="13">
         <v>98.3</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>55.6</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <v>40.9</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>6.5</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>6.2</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>8.4</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="13">
         <v>12.1</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L17" s="14">
+      <c r="L17" s="13">
         <v>12.3</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>14.7</v>
       </c>
-      <c r="N17" s="14">
+      <c r="N17" s="13">
         <v>9.3000000000000007</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <v>13.5</v>
       </c>
-      <c r="P17" s="14">
+      <c r="P17" s="13">
         <v>13</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>15.338988467000002</v>
+      </c>
+      <c r="R17" s="13">
+        <v>21.9</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="15" x14ac:dyDescent="0.3">
@@ -1091,218 +1176,242 @@
       <c r="P21" s="4">
         <v>2020</v>
       </c>
+      <c r="Q21" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="22" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>26216</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="15">
         <v>27961</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="15">
         <v>26863</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="15">
         <v>28460</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <v>28411</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>32268</v>
       </c>
-      <c r="H22" s="16">
+      <c r="H22" s="15">
         <v>33509</v>
       </c>
-      <c r="I22" s="16">
+      <c r="I22" s="15">
         <v>34214</v>
       </c>
-      <c r="J22" s="16">
+      <c r="J22" s="15">
         <v>34864</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="15">
         <v>36600</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="15">
         <v>39953</v>
       </c>
-      <c r="M22" s="16">
+      <c r="M22" s="15">
         <v>41905</v>
       </c>
-      <c r="N22" s="16">
+      <c r="N22" s="15">
         <v>41965</v>
       </c>
-      <c r="O22" s="16">
+      <c r="O22" s="15">
         <v>43751</v>
       </c>
-      <c r="P22" s="16">
+      <c r="P22" s="15">
         <v>39282.199999999997</v>
       </c>
+      <c r="Q22" s="15">
+        <v>44566.54540098401</v>
+      </c>
+      <c r="R22" s="15">
+        <v>47363</v>
+      </c>
     </row>
     <row r="23" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="16">
         <v>17296</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="16">
         <v>17273</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="16">
         <v>17906</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>17442</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>18024</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G23" s="16">
         <v>23482</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H23" s="17">
         <v>23180</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <v>22772</v>
       </c>
-      <c r="J23" s="18">
+      <c r="J23" s="17">
         <v>23270</v>
       </c>
-      <c r="K23" s="18">
+      <c r="K23" s="17">
         <v>25118</v>
       </c>
-      <c r="L23" s="18">
+      <c r="L23" s="17">
         <v>27280</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="17">
         <v>31664</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="17">
         <v>31861</v>
       </c>
-      <c r="O23" s="18">
+      <c r="O23" s="17">
         <v>33240</v>
       </c>
-      <c r="P23" s="18">
+      <c r="P23" s="17">
         <v>28791.599999999999</v>
       </c>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="11"/>
+      <c r="Q23" s="17">
+        <v>34143.409943689992</v>
+      </c>
+      <c r="R23" s="17">
+        <v>35955</v>
+      </c>
+      <c r="S23" s="6"/>
+      <c r="T23" s="10"/>
     </row>
     <row r="24" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="16">
         <v>3354</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="16">
         <v>5051</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="16">
         <v>3188</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="16">
         <v>6376</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <v>6703</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G24" s="16">
         <v>7179</v>
       </c>
-      <c r="H24" s="18">
+      <c r="H24" s="17">
         <v>9409</v>
       </c>
-      <c r="I24" s="18">
+      <c r="I24" s="17">
         <v>10659</v>
       </c>
-      <c r="J24" s="18">
+      <c r="J24" s="17">
         <v>10489</v>
       </c>
-      <c r="K24" s="18">
+      <c r="K24" s="17">
         <v>10582</v>
       </c>
-      <c r="L24" s="18">
+      <c r="L24" s="17">
         <v>11512</v>
       </c>
-      <c r="M24" s="18">
+      <c r="M24" s="17">
         <v>9122</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <v>9108</v>
       </c>
-      <c r="O24" s="18">
+      <c r="O24" s="17">
         <v>9535</v>
       </c>
-      <c r="P24" s="18">
+      <c r="P24" s="17">
         <v>9349</v>
       </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="11"/>
+      <c r="Q24" s="17">
+        <v>9348.2054455580001</v>
+      </c>
+      <c r="R24" s="17">
+        <v>10330</v>
+      </c>
+      <c r="S24" s="6"/>
+      <c r="T24" s="10"/>
     </row>
     <row r="25" spans="1:20" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="17">
+      <c r="B25" s="16">
         <v>5566</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="16">
         <v>5638</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="16">
         <v>5769</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="16">
         <v>4643</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <v>3685</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="16">
         <v>1607</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H25" s="17">
         <v>920</v>
       </c>
-      <c r="I25" s="18">
+      <c r="I25" s="17">
         <v>783</v>
       </c>
-      <c r="J25" s="18">
+      <c r="J25" s="17">
         <v>1106</v>
       </c>
-      <c r="K25" s="18">
+      <c r="K25" s="17">
         <v>900</v>
       </c>
-      <c r="L25" s="18">
+      <c r="L25" s="17">
         <v>1162</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="17">
         <v>1119</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <v>995</v>
       </c>
-      <c r="O25" s="18">
+      <c r="O25" s="17">
         <v>976</v>
       </c>
-      <c r="P25" s="18">
+      <c r="P25" s="17">
         <v>1141.7</v>
       </c>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="11"/>
+      <c r="Q25" s="17">
+        <v>1074.9300117360001</v>
+      </c>
+      <c r="R25" s="17">
+        <v>1077</v>
+      </c>
+      <c r="S25" s="6"/>
+      <c r="T25" s="10"/>
     </row>
     <row r="27" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
@@ -1356,205 +1465,235 @@
       <c r="P29" s="4">
         <v>2020</v>
       </c>
+      <c r="Q29" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="4">
+        <v>2022</v>
+      </c>
     </row>
     <row r="30" spans="1:20" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>281.3</v>
       </c>
-      <c r="C30" s="12">
+      <c r="C30" s="11">
         <v>371.6</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="11">
         <v>511.2</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="11">
         <v>481.9</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="11">
         <v>571.5</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="11">
         <v>547.5</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>663</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="11">
         <v>679.6</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="12">
         <v>690.2</v>
       </c>
-      <c r="K30" s="13">
+      <c r="K30" s="12">
         <v>779.2</v>
       </c>
-      <c r="L30" s="13">
+      <c r="L30" s="12">
         <v>763.8</v>
       </c>
-      <c r="M30" s="13">
+      <c r="M30" s="12">
         <v>817.3</v>
       </c>
-      <c r="N30" s="13">
+      <c r="N30" s="12">
         <v>866.3</v>
       </c>
-      <c r="O30" s="13">
+      <c r="O30" s="12">
         <v>911.9</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="12">
         <v>1111.2</v>
       </c>
+      <c r="Q30" s="12">
+        <v>1181.5999999999999</v>
+      </c>
+      <c r="R30" s="12">
+        <v>1374.9</v>
+      </c>
     </row>
     <row r="31" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B31" s="14">
+      <c r="B31" s="13">
         <v>300.8</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>318</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D31" s="13">
         <v>430.7</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>381</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31" s="14">
         <v>452.6</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>430</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>502.1</v>
       </c>
-      <c r="I31" s="14">
+      <c r="I31" s="13">
         <v>494.8</v>
       </c>
-      <c r="J31" s="14">
+      <c r="J31" s="13">
         <v>485.9</v>
       </c>
-      <c r="K31" s="14">
+      <c r="K31" s="13">
         <v>572</v>
       </c>
-      <c r="L31" s="14">
+      <c r="L31" s="13">
         <v>559</v>
       </c>
-      <c r="M31" s="14">
+      <c r="M31" s="13">
         <v>640</v>
       </c>
-      <c r="N31" s="14">
+      <c r="N31" s="13">
         <v>731.8</v>
       </c>
-      <c r="O31" s="14">
+      <c r="O31" s="13">
         <v>762.9</v>
       </c>
-      <c r="P31" s="14">
+      <c r="P31" s="13">
         <v>888</v>
       </c>
+      <c r="Q31" s="13">
+        <v>992.2</v>
+      </c>
+      <c r="R31" s="13">
+        <v>1168.2</v>
+      </c>
     </row>
     <row r="32" spans="1:20" ht="30" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B32" s="14">
+      <c r="B32" s="13">
         <v>406.6</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="13">
         <v>745.2</v>
       </c>
-      <c r="D32" s="14">
+      <c r="D32" s="13">
         <v>1351.3</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>816.6</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32" s="14">
         <v>981.1</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>978.6</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>1063.2</v>
       </c>
-      <c r="I32" s="14">
+      <c r="I32" s="13">
         <v>1060.9000000000001</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J32" s="13">
         <v>1124.9000000000001</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="13">
         <v>1239.0999999999999</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="13">
         <v>1199.5999999999999</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="13">
         <v>1364</v>
       </c>
-      <c r="N32" s="14">
+      <c r="N32" s="13">
         <v>1308.7</v>
       </c>
-      <c r="O32" s="14">
+      <c r="O32" s="13">
         <v>1388.5</v>
       </c>
-      <c r="P32" s="14">
+      <c r="P32" s="13">
         <v>1766.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="8" t="s">
+      <c r="Q32" s="13">
+        <v>1821.9</v>
+      </c>
+      <c r="R32" s="13">
+        <v>2022.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="14">
+      <c r="B33" s="13">
         <v>153.9</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="13">
         <v>183.3</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D33" s="13">
         <v>265.7</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>344.4</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33" s="14">
         <v>316.8</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>220</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>336.8</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="13">
         <v>596.79999999999995</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="13">
         <v>565.70000000000005</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="13">
         <v>508.9</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="13">
         <v>528.1</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="13">
         <v>657.5</v>
       </c>
-      <c r="N33" s="14">
+      <c r="N33" s="13">
         <v>585.6</v>
       </c>
-      <c r="O33" s="14">
+      <c r="O33" s="13">
         <v>707.4</v>
       </c>
-      <c r="P33" s="14">
+      <c r="P33" s="13">
         <v>594.29999999999995</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>683.9</v>
+      </c>
+      <c r="R33" s="13">
+        <v>931.7</v>
       </c>
     </row>
   </sheetData>
